--- a/documents/GraphicalOverview.xlsx
+++ b/documents/GraphicalOverview.xlsx
@@ -16,65 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>value 0</t>
-  </si>
-  <si>
-    <t>value 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Byte Number</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
-    <t>storelocation
-( = 802)</t>
-  </si>
-  <si>
-    <t>write
-Counter</t>
-  </si>
-  <si>
-    <t>value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt; storelocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   &lt; eepromMinAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eepromMaxAddress &gt;  </t>
+    <t>long1</t>
+  </si>
+  <si>
+    <t>long 2</t>
+  </si>
+  <si>
+    <t>long3</t>
+  </si>
+  <si>
+    <t>long 4</t>
+  </si>
+  <si>
+    <t>long 0</t>
+  </si>
+  <si>
+    <t>SLOT MANAGER</t>
+  </si>
+  <si>
+    <t>currentSlot</t>
+  </si>
+  <si>
+    <t>cycleNumber</t>
+  </si>
+  <si>
+    <t>errorTime</t>
+  </si>
+  <si>
+    <t>error
+Code</t>
+  </si>
+  <si>
+    <t>ERROR LOG SLOT 1</t>
+  </si>
+  <si>
+    <t>ERROR LOG SLOT 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -97,14 +87,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,24 +115,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -166,35 +150,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -269,15 +224,57 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -289,7 +286,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -300,7 +297,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -309,10 +306,32 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -321,24 +340,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -354,73 +369,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,230 +747,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J14:AH19"/>
+  <dimension ref="F13:Y18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="34" width="5" customWidth="1"/>
+    <col min="6" max="25" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="10:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="10:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="16" t="s">
+    <row r="13" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="6:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="6:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="18"/>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>4</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2</v>
+      </c>
+      <c r="T16" s="2">
+        <v>3</v>
+      </c>
+      <c r="U16" s="2">
+        <v>4</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="2">
+        <v>2</v>
+      </c>
+      <c r="X16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="10:34" x14ac:dyDescent="0.25">
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
+    <row r="17" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="F17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="6">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="6">
-        <v>801</v>
-      </c>
-      <c r="O16" s="7">
-        <v>802</v>
-      </c>
-      <c r="P16" s="6">
-        <v>803</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>804</v>
-      </c>
-      <c r="R16" s="6">
-        <v>805</v>
-      </c>
-      <c r="S16" s="6">
-        <v>806</v>
-      </c>
-      <c r="T16" s="6">
-        <v>807</v>
-      </c>
-      <c r="U16" s="6">
-        <v>808</v>
-      </c>
-      <c r="V16" s="6">
-        <v>809</v>
-      </c>
-      <c r="W16" s="6">
-        <v>810</v>
-      </c>
-      <c r="X16" s="6">
-        <v>811</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>812</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>813</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>814</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>815</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>816</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>817</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>818</v>
-      </c>
-      <c r="AF16" s="6" t="s">
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AG16" s="6">
-        <v>4094</v>
-      </c>
-      <c r="AH16" s="9">
-        <v>4095</v>
-      </c>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="22"/>
     </row>
-    <row r="17" spans="10:34" x14ac:dyDescent="0.25">
-      <c r="J17" s="10"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="11"/>
-    </row>
-    <row r="18" spans="10:34" x14ac:dyDescent="0.25">
-      <c r="J18" s="12" t="s">
+    <row r="18" spans="6:25" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="13" t="s">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="10:34" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J15:AH15"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
+  <mergeCells count="16">
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="R15:Y15"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/GraphicalOverview.xlsx
+++ b/documents/GraphicalOverview.xlsx
@@ -8,38 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Byte Number</t>
   </si>
   <si>
-    <t>long1</t>
-  </si>
-  <si>
     <t>long 2</t>
   </si>
   <si>
-    <t>long3</t>
-  </si>
-  <si>
     <t>long 4</t>
   </si>
   <si>
     <t>long 0</t>
-  </si>
-  <si>
-    <t>SLOT MANAGER</t>
-  </si>
-  <si>
-    <t>currentSlot</t>
   </si>
   <si>
     <t>cycleNumber</t>
@@ -52,10 +38,34 @@
 Code</t>
   </si>
   <si>
-    <t>ERROR LOG SLOT 1</t>
-  </si>
-  <si>
-    <t>ERROR LOG SLOT 2</t>
+    <t>ERROR LOG 0</t>
+  </si>
+  <si>
+    <t>ERROR LOG 1</t>
+  </si>
+  <si>
+    <t>noOfFirstLog</t>
+  </si>
+  <si>
+    <t>noOfCurrentLog</t>
+  </si>
+  <si>
+    <t>long 1</t>
+  </si>
+  <si>
+    <t>long 3</t>
+  </si>
+  <si>
+    <t>LOG MANAGER</t>
+  </si>
+  <si>
+    <t>mergedLogManager</t>
+  </si>
+  <si>
+    <t>mergedTimeAndCode</t>
+  </si>
+  <si>
+    <t>Number of eeprom-counter value</t>
   </si>
 </sst>
 </file>
@@ -65,13 +75,6 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,8 +96,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +135,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -153,7 +187,39 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -163,8 +229,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -174,7 +244,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -196,7 +268,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -205,13 +277,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -220,8 +307,36 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -230,9 +345,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -241,209 +360,160 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -747,248 +817,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F13:Y18"/>
+  <dimension ref="F13:Y21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="25" width="4.28515625" customWidth="1"/>
+    <col min="1" max="5" width="11.42578125" style="2"/>
+    <col min="6" max="9" width="5.85546875" style="2" customWidth="1"/>
+    <col min="10" max="25" width="4.140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="13" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="6:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="11" t="s">
+    <row r="13" spans="6:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="6:25" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="22"/>
+    </row>
+    <row r="15" spans="6:25" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="6:25" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>3</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="18">
+        <v>2</v>
+      </c>
+      <c r="L16" s="18">
+        <v>3</v>
+      </c>
+      <c r="M16" s="18">
+        <v>4</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18">
+        <v>2</v>
+      </c>
+      <c r="P16" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>4</v>
+      </c>
+      <c r="R16" s="17">
+        <v>1</v>
+      </c>
+      <c r="S16" s="18">
+        <v>2</v>
+      </c>
+      <c r="T16" s="18">
+        <v>3</v>
+      </c>
+      <c r="U16" s="18">
+        <v>4</v>
+      </c>
+      <c r="V16" s="18">
+        <v>1</v>
+      </c>
+      <c r="W16" s="18">
+        <v>2</v>
+      </c>
+      <c r="X16" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:25" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="13"/>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="41" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="6:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4">
+    <row r="18" spans="6:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2</v>
-      </c>
-      <c r="L16" s="2">
-        <v>3</v>
-      </c>
-      <c r="M16" s="2">
-        <v>4</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>2</v>
-      </c>
-      <c r="P16" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>4</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="2">
-        <v>2</v>
-      </c>
-      <c r="T16" s="2">
-        <v>3</v>
-      </c>
-      <c r="U16" s="2">
-        <v>4</v>
-      </c>
-      <c r="V16" s="2">
-        <v>1</v>
-      </c>
-      <c r="W16" s="2">
-        <v>2</v>
-      </c>
-      <c r="X16" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="22"/>
-    </row>
-    <row r="18" spans="6:25" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="7"/>
       <c r="R18" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="U18" s="10"/>
+      <c r="V18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="6:25" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+    </row>
+    <row r="20" spans="6:25" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="33"/>
+    </row>
+    <row r="21" spans="6:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F17:I17"/>
+  <mergeCells count="25">
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="F20:Y20"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="N17:P17"/>
     <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documents/GraphicalOverview.xlsx
+++ b/documents/GraphicalOverview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Byte Number</t>
   </si>
@@ -38,12 +38,6 @@
 Code</t>
   </si>
   <si>
-    <t>ERROR LOG 0</t>
-  </si>
-  <si>
-    <t>ERROR LOG 1</t>
-  </si>
-  <si>
     <t>noOfFirstLog</t>
   </si>
   <si>
@@ -65,14 +59,85 @@
     <t>mergedTimeAndCode</t>
   </si>
   <si>
-    <t>Number of eeprom-counter value</t>
+    <t>LOG NUMBER 0</t>
+  </si>
+  <si>
+    <t>LOG NUMBER 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EEPROM - LOGGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the logger manages the logs </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EEPROM - COUNTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the counter manages the storage of the values on the the EEPROM</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +168,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -313,32 +399,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -375,23 +435,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,29 +483,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,33 +570,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,41 +591,23 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,6 +621,266 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>393605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4592481" y="4301290"/>
+          <a:ext cx="0" cy="363526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>393605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Gerade Verbindung mit Pfeil 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5925981" y="4301290"/>
+          <a:ext cx="0" cy="363526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>393605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7033889" y="4301290"/>
+          <a:ext cx="0" cy="363526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>393605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Gerade Verbindung mit Pfeil 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8136784" y="4301290"/>
+          <a:ext cx="0" cy="363526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>393605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239679" y="4301290"/>
+          <a:ext cx="0" cy="363526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F13:Y21"/>
+  <dimension ref="F12:Y21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,279 +1184,313 @@
     <col min="26" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="13" spans="6:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="6:25" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="22"/>
+    <row r="12" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="6:25" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="42"/>
     </row>
-    <row r="15" spans="6:25" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="11" t="s">
+    <row r="14" spans="6:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="6:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="14" t="s">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15" t="s">
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="28"/>
     </row>
-    <row r="16" spans="6:25" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="17">
+    <row r="16" spans="6:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="4">
         <v>3</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="5">
         <v>4</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="4">
         <v>2</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="4">
         <v>3</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="4">
         <v>4</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="4">
         <v>1</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="4">
         <v>2</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="4">
         <v>3</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="5">
         <v>4</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="3">
         <v>1</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="4">
         <v>2</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="4">
         <v>3</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="4">
         <v>4</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="4">
         <v>1</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="4">
         <v>2</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="4">
         <v>3</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="6:25" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="3" t="s">
+      <c r="F17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="30" t="s">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="41" t="s">
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="30" t="s">
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="41" t="s">
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="6:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8" t="s">
+      <c r="F18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="8" t="s">
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="7"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="25"/>
     </row>
-    <row r="19" spans="6:25" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
+    <row r="19" spans="6:25" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="6:25" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="33"/>
+    <row r="20" spans="6:25" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="40"/>
     </row>
-    <row r="21" spans="6:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="35" t="s">
+    <row r="21" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="35" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="35" t="s">
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="37"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="F13:Y13"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="R14:Y14"/>
     <mergeCell ref="R21:U21"/>
     <mergeCell ref="V21:Y21"/>
@@ -1120,17 +1507,9 @@
     <mergeCell ref="V15:Y15"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/GraphicalOverview.xlsx
+++ b/documents/GraphicalOverview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Byte Number</t>
   </si>
@@ -41,9 +41,6 @@
     <t>noOfFirstLog</t>
   </si>
   <si>
-    <t>noOfCurrentLog</t>
-  </si>
-  <si>
     <t>long 1</t>
   </si>
   <si>
@@ -65,38 +62,10 @@
     <t>LOG NUMBER 1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EEPROM - LOGGER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the logger manages the logs </t>
-    </r>
+    <t>noOfNextLog</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <r>
@@ -129,7 +98,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>the counter manages the storage of the values on the the EEPROM</t>
+      <t>the counter is used as storage manager for the EEPROM memory, it works with long values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EEPROM - LOGGER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">he logger gets logs from the main programm, converts them to longs, and passes them on to the eeprom-counter and vice versa </t>
     </r>
   </si>
 </sst>
@@ -246,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -285,100 +288,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -464,6 +422,118 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -475,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,125 +559,155 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,106 +1270,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F12:Y21"/>
+  <dimension ref="F12:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="9" width="5.85546875" style="2" customWidth="1"/>
-    <col min="10" max="25" width="4.140625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="26" width="5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="45"/>
+    <col min="28" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="12" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="6:25" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="43" t="s">
+    <row r="12" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="6:26" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51"/>
+    </row>
+    <row r="14" spans="6:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="42"/>
     </row>
-    <row r="14" spans="6:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="10"/>
+    <row r="15" spans="6:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="44" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="15" spans="6:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
-    </row>
-    <row r="16" spans="6:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="3">
         <v>1</v>
       </c>
@@ -1279,7 +1386,7 @@
       <c r="H16" s="4">
         <v>3</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="33">
         <v>4</v>
       </c>
       <c r="J16" s="3">
@@ -1303,7 +1410,7 @@
       <c r="P16" s="4">
         <v>3</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="33">
         <v>4</v>
       </c>
       <c r="R16" s="3">
@@ -1327,186 +1434,202 @@
       <c r="X16" s="4">
         <v>3</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="33">
         <v>4</v>
       </c>
+      <c r="Z16" s="44" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="17" spans="6:25" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="35" t="s">
+    <row r="17" spans="6:27" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="46"/>
+    </row>
+    <row r="18" spans="6:27" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="46"/>
+    </row>
+    <row r="19" spans="6:27" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="AA19" s="46"/>
+    </row>
+    <row r="20" spans="6:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="48"/>
+    </row>
+    <row r="21" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="6:25" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-    </row>
-    <row r="19" spans="6:25" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-    </row>
-    <row r="20" spans="6:25" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="40"/>
-    </row>
-    <row r="21" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="11" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14" t="s">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F13:Y13"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F20:Z20"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="N21:Q21"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="J14:Q14"/>
     <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="F20:Y20"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:Y18"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F13:Z13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
